--- a/libraries/content/compared_table.xlsx
+++ b/libraries/content/compared_table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meltr\OneDrive\Documents\(APT2)\D4\STAGE\github\info_extraction\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meltr\OneDrive\Documents\(APT2)\D4\STAGE\github\GenEval\libraries\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC54D094-A6BF-464D-B654-9B3C556848DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3B0DC7-2821-458E-A749-58A0EB6DB701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9D2BD8B-06B9-4933-89D2-CDC21B310CAB}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>list string</t>
   </si>
   <si>
-    <t>DFGE</t>
-  </si>
-  <si>
     <t>6,9,7</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>12,9876,0.2,4</t>
+  </si>
+  <si>
+    <t>DeFeEeGe</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,19 +621,19 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -641,30 +641,30 @@
         <v>575</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
       <c r="F4" s="5"/>
     </row>
@@ -673,36 +673,36 @@
         <v>1000</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="5"/>
     </row>
@@ -711,13 +711,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
